--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,72 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attendance_Tracking_System\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86629ADF-D27C-4E26-A874-E8C8BBEC074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>ATTENDANCE_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="59">
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>HOUR</t>
-  </si>
-  <si>
-    <t>SUBJECT_ID</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>JCS1001</t>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
   <si>
     <t>ABSENT</t>
   </si>
   <si>
-    <t>JCS1002</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>JCS1006</t>
-  </si>
-  <si>
-    <t>JCS1003</t>
-  </si>
-  <si>
-    <t>JCS1005</t>
-  </si>
-  <si>
-    <t>JCS1008</t>
-  </si>
-  <si>
-    <t>JCS1004</t>
-  </si>
-  <si>
-    <t>JCS1007</t>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>STUDENT_ID</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>HOUR1</t>
+  </si>
+  <si>
+    <t>HOUR2</t>
+  </si>
+  <si>
+    <t>HOUR3</t>
+  </si>
+  <si>
+    <t>HOUR4</t>
+  </si>
+  <si>
+    <t>HOUR5</t>
+  </si>
+  <si>
+    <t>HOUR6</t>
+  </si>
+  <si>
+    <t>HOUR7</t>
+  </si>
+  <si>
+    <t>HOUR8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,18 +232,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -188,7 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -223,7 +360,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,199 +535,896 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20001</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>50000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45385</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20002</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20003</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>50000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45386</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>50000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45387</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>50000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45388</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45389</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>50000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45390</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+        <v>20006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>50000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45391</v>
-      </c>
-      <c r="C8">
+        <v>20007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>50000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45392</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>